--- a/Weekly_Trades/TradeStats/APEXPA.xlsx
+++ b/Weekly_Trades/TradeStats/APEXPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\jupyter_workspace\Trade Analysis\Futures-Market-Analysis\Weekly_Trades\TradeStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA75CE33-2AF8-40AB-8144-B33687872CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB41BDAC-69A6-4ECB-BE9E-04AD33927F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2100" windowWidth="29040" windowHeight="15840" xr2:uid="{C17E9512-26B7-4FD8-AEA2-6939F4D70783}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="32">
   <si>
     <t>Trade Status</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">directionally wrong, </t>
+  </si>
+  <si>
+    <t>samethesis8</t>
   </si>
 </sst>
 </file>
@@ -532,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C20D21-9371-4A49-8184-96096A12DFB0}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="J1">
         <f>COUNTA(A:A)</f>
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -599,7 +602,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF($A2:$A800, "Win")</f>
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,7 +623,7 @@
       </c>
       <c r="J3">
         <f>COUNTIF($D2:$D800, "&gt;=60")</f>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -664,7 +667,7 @@
       </c>
       <c r="J5">
         <f>SUMIF($A2:$A800, "Loss", $B2:$B800)</f>
-        <v>1000</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,7 +691,7 @@
       </c>
       <c r="J6">
         <f>SUMIF($A2:$A800, "Win", $B2:$B800)</f>
-        <v>880</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2254,6 +2257,457 @@
       </c>
       <c r="F94">
         <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>15</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>20</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>36</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>66</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>200</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>30</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>60</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>200</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>250</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>30</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>90</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>40</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>300</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>25</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>30</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>20</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>180</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>180</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>30</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>40</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>150</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>60</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>30</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>35</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>50</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>35</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>35</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>50</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>40</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
